--- a/Python_ASN_Bot/invoices_status.xlsx
+++ b/Python_ASN_Bot/invoices_status.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming Projects\ASN_Sub_Automator\Python_ASN_Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116E2A33-F4F0-42F5-85BE-6FD46A321CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F265897A-53AD-452A-8BC5-8559AB36522F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -700,11 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -726,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -743,7 +742,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -760,7 +759,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -777,7 +776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -794,7 +793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -811,7 +810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -828,7 +827,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -845,7 +844,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -862,7 +861,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -879,7 +878,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -896,7 +895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -913,7 +912,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -930,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -947,7 +946,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -964,7 +963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -981,7 +980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -998,7 +997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1015,7 +1014,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -1032,7 +1031,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1049,7 +1048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1066,7 +1065,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -1083,7 +1082,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1117,7 +1116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -1168,7 +1167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -1185,7 +1184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -1202,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -1219,7 +1218,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1236,7 +1235,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -1270,7 +1269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>71</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>73</v>
       </c>
@@ -1321,7 +1320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>77</v>
       </c>
@@ -1338,7 +1337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -1355,7 +1354,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>81</v>
       </c>
@@ -1372,7 +1371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>83</v>
       </c>
@@ -1389,7 +1388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1406,7 +1405,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>87</v>
       </c>
@@ -1423,7 +1422,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -1440,7 +1439,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>91</v>
       </c>
@@ -1457,7 +1456,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>93</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>95</v>
       </c>
@@ -1491,7 +1490,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>97</v>
       </c>
@@ -1508,7 +1507,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -1525,7 +1524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>101</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -1560,13 +1559,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E50" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Not Available"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E50" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>